--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Gnai2-Cav1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Gnai2-Cav1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>173.715416527027</v>
+        <v>184.0626906666667</v>
       </c>
       <c r="H2">
-        <v>173.715416527027</v>
+        <v>552.188072</v>
       </c>
       <c r="I2">
-        <v>0.6413350074599548</v>
+        <v>0.6510505751503485</v>
       </c>
       <c r="J2">
-        <v>0.6413350074599548</v>
+        <v>0.6510505751503486</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>67.75439625905661</v>
+        <v>505.8908573333333</v>
       </c>
       <c r="N2">
-        <v>67.75439625905661</v>
+        <v>1517.672572</v>
       </c>
       <c r="O2">
-        <v>0.2441837656042616</v>
+        <v>0.7018211771568338</v>
       </c>
       <c r="P2">
-        <v>0.2441837656042616</v>
+        <v>0.7018211771568337</v>
       </c>
       <c r="Q2">
-        <v>11769.98316767926</v>
+        <v>93115.63238444013</v>
       </c>
       <c r="R2">
-        <v>11769.98316767926</v>
+        <v>838040.6914599612</v>
       </c>
       <c r="S2">
-        <v>0.1566035971354089</v>
+        <v>0.4569210810406513</v>
       </c>
       <c r="T2">
-        <v>0.1566035971354089</v>
+        <v>0.4569210810406513</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>173.715416527027</v>
+        <v>184.0626906666667</v>
       </c>
       <c r="H3">
-        <v>173.715416527027</v>
+        <v>552.188072</v>
       </c>
       <c r="I3">
-        <v>0.6413350074599548</v>
+        <v>0.6510505751503485</v>
       </c>
       <c r="J3">
-        <v>0.6413350074599548</v>
+        <v>0.6510505751503486</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>86.9811983921349</v>
+        <v>88.00803400000001</v>
       </c>
       <c r="N3">
-        <v>86.9811983921349</v>
+        <v>264.024102</v>
       </c>
       <c r="O3">
-        <v>0.3134762868959047</v>
+        <v>0.1220933352041998</v>
       </c>
       <c r="P3">
-        <v>0.3134762868959047</v>
+        <v>0.1220933352041997</v>
       </c>
       <c r="Q3">
-        <v>15109.97510870968</v>
+        <v>16198.99553832348</v>
       </c>
       <c r="R3">
-        <v>15109.97510870968</v>
+        <v>145790.9598449114</v>
       </c>
       <c r="S3">
-        <v>0.2010433167949039</v>
+        <v>0.07948893610671853</v>
       </c>
       <c r="T3">
-        <v>0.2010433167949039</v>
+        <v>0.07948893610671855</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>173.715416527027</v>
+        <v>184.0626906666667</v>
       </c>
       <c r="H4">
-        <v>173.715416527027</v>
+        <v>552.188072</v>
       </c>
       <c r="I4">
-        <v>0.6413350074599548</v>
+        <v>0.6510505751503485</v>
       </c>
       <c r="J4">
-        <v>0.6413350074599548</v>
+        <v>0.6510505751503486</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>122.737381864632</v>
+        <v>126.926974</v>
       </c>
       <c r="N4">
-        <v>122.737381864632</v>
+        <v>380.780922</v>
       </c>
       <c r="O4">
-        <v>0.4423399474998339</v>
+        <v>0.1760854876389666</v>
       </c>
       <c r="P4">
-        <v>0.4423399474998339</v>
+        <v>0.1760854876389665</v>
       </c>
       <c r="Q4">
-        <v>21321.37541405132</v>
+        <v>23362.52035261804</v>
       </c>
       <c r="R4">
-        <v>21321.37541405132</v>
+        <v>210262.6831735624</v>
       </c>
       <c r="S4">
-        <v>0.283688093529642</v>
+        <v>0.1146405580029788</v>
       </c>
       <c r="T4">
-        <v>0.283688093529642</v>
+        <v>0.1146405580029787</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>56.9446226060136</v>
+        <v>57.4434</v>
       </c>
       <c r="H5">
-        <v>56.9446226060136</v>
+        <v>172.3302</v>
       </c>
       <c r="I5">
-        <v>0.2102322332350399</v>
+        <v>0.2031838091312023</v>
       </c>
       <c r="J5">
-        <v>0.2102322332350399</v>
+        <v>0.2031838091312023</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>67.75439625905661</v>
+        <v>505.8908573333333</v>
       </c>
       <c r="N5">
-        <v>67.75439625905661</v>
+        <v>1517.672572</v>
       </c>
       <c r="O5">
-        <v>0.2441837656042616</v>
+        <v>0.7018211771568338</v>
       </c>
       <c r="P5">
-        <v>0.2441837656042616</v>
+        <v>0.7018211771568337</v>
       </c>
       <c r="Q5">
-        <v>3858.248524870278</v>
+        <v>29060.0908741416</v>
       </c>
       <c r="R5">
-        <v>3858.248524870278</v>
+        <v>261540.8178672744</v>
       </c>
       <c r="S5">
-        <v>0.05133529836272543</v>
+        <v>0.1425987001036698</v>
       </c>
       <c r="T5">
-        <v>0.05133529836272543</v>
+        <v>0.1425987001036698</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>56.9446226060136</v>
+        <v>57.4434</v>
       </c>
       <c r="H6">
-        <v>56.9446226060136</v>
+        <v>172.3302</v>
       </c>
       <c r="I6">
-        <v>0.2102322332350399</v>
+        <v>0.2031838091312023</v>
       </c>
       <c r="J6">
-        <v>0.2102322332350399</v>
+        <v>0.2031838091312023</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>86.9811983921349</v>
+        <v>88.00803400000001</v>
       </c>
       <c r="N6">
-        <v>86.9811983921349</v>
+        <v>264.024102</v>
       </c>
       <c r="O6">
-        <v>0.3134762868959047</v>
+        <v>0.1220933352041998</v>
       </c>
       <c r="P6">
-        <v>0.3134762868959047</v>
+        <v>0.1220933352041997</v>
       </c>
       <c r="Q6">
-        <v>4953.111516258919</v>
+        <v>5055.480700275601</v>
       </c>
       <c r="R6">
-        <v>4953.111516258919</v>
+        <v>45499.3263024804</v>
       </c>
       <c r="S6">
-        <v>0.06590281986035411</v>
+        <v>0.02480738891632202</v>
       </c>
       <c r="T6">
-        <v>0.06590281986035411</v>
+        <v>0.02480738891632202</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>56.9446226060136</v>
+        <v>57.4434</v>
       </c>
       <c r="H7">
-        <v>56.9446226060136</v>
+        <v>172.3302</v>
       </c>
       <c r="I7">
-        <v>0.2102322332350399</v>
+        <v>0.2031838091312023</v>
       </c>
       <c r="J7">
-        <v>0.2102322332350399</v>
+        <v>0.2031838091312023</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>122.737381864632</v>
+        <v>126.926974</v>
       </c>
       <c r="N7">
-        <v>122.737381864632</v>
+        <v>380.780922</v>
       </c>
       <c r="O7">
-        <v>0.4423399474998339</v>
+        <v>0.1760854876389666</v>
       </c>
       <c r="P7">
-        <v>0.4423399474998339</v>
+        <v>0.1760854876389665</v>
       </c>
       <c r="Q7">
-        <v>6989.233889931647</v>
+        <v>7291.116938271601</v>
       </c>
       <c r="R7">
-        <v>6989.233889931647</v>
+        <v>65620.0524444444</v>
       </c>
       <c r="S7">
-        <v>0.09299411501196038</v>
+        <v>0.03577772011121046</v>
       </c>
       <c r="T7">
-        <v>0.09299411501196038</v>
+        <v>0.03577772011121045</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>40.2052878900969</v>
+        <v>41.21033366666666</v>
       </c>
       <c r="H8">
-        <v>40.2052878900969</v>
+        <v>123.631001</v>
       </c>
       <c r="I8">
-        <v>0.1484327593050052</v>
+        <v>0.1457656157184491</v>
       </c>
       <c r="J8">
-        <v>0.1484327593050052</v>
+        <v>0.1457656157184491</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>67.75439625905661</v>
+        <v>505.8908573333333</v>
       </c>
       <c r="N8">
-        <v>67.75439625905661</v>
+        <v>1517.672572</v>
       </c>
       <c r="O8">
-        <v>0.2441837656042616</v>
+        <v>0.7018211771568338</v>
       </c>
       <c r="P8">
-        <v>0.2441837656042616</v>
+        <v>0.7018211771568337</v>
       </c>
       <c r="Q8">
-        <v>2724.085007415075</v>
+        <v>20847.93102962273</v>
       </c>
       <c r="R8">
-        <v>2724.085007415075</v>
+        <v>187631.3792666045</v>
       </c>
       <c r="S8">
-        <v>0.03624487010612717</v>
+        <v>0.1023013960125126</v>
       </c>
       <c r="T8">
-        <v>0.03624487010612717</v>
+        <v>0.1023013960125126</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>40.2052878900969</v>
+        <v>41.21033366666666</v>
       </c>
       <c r="H9">
-        <v>40.2052878900969</v>
+        <v>123.631001</v>
       </c>
       <c r="I9">
-        <v>0.1484327593050052</v>
+        <v>0.1457656157184491</v>
       </c>
       <c r="J9">
-        <v>0.1484327593050052</v>
+        <v>0.1457656157184491</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>86.9811983921349</v>
+        <v>88.00803400000001</v>
       </c>
       <c r="N9">
-        <v>86.9811983921349</v>
+        <v>264.024102</v>
       </c>
       <c r="O9">
-        <v>0.3134762868959047</v>
+        <v>0.1220933352041998</v>
       </c>
       <c r="P9">
-        <v>0.3134762868959047</v>
+        <v>0.1220933352041997</v>
       </c>
       <c r="Q9">
-        <v>3497.104122381417</v>
+        <v>3626.840446487345</v>
       </c>
       <c r="R9">
-        <v>3497.104122381417</v>
+        <v>32641.5640183861</v>
       </c>
       <c r="S9">
-        <v>0.04653015024064658</v>
+        <v>0.01779701018115918</v>
       </c>
       <c r="T9">
-        <v>0.04653015024064658</v>
+        <v>0.01779701018115917</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>40.2052878900969</v>
+        <v>41.21033366666666</v>
       </c>
       <c r="H10">
-        <v>40.2052878900969</v>
+        <v>123.631001</v>
       </c>
       <c r="I10">
-        <v>0.1484327593050052</v>
+        <v>0.1457656157184491</v>
       </c>
       <c r="J10">
-        <v>0.1484327593050052</v>
+        <v>0.1457656157184491</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>122.737381864632</v>
+        <v>126.926974</v>
       </c>
       <c r="N10">
-        <v>122.737381864632</v>
+        <v>380.780922</v>
       </c>
       <c r="O10">
-        <v>0.4423399474998339</v>
+        <v>0.1760854876389666</v>
       </c>
       <c r="P10">
-        <v>0.4423399474998339</v>
+        <v>0.1760854876389665</v>
       </c>
       <c r="Q10">
-        <v>4934.691772744288</v>
+        <v>5230.702949840325</v>
       </c>
       <c r="R10">
-        <v>4934.691772744288</v>
+        <v>47076.32654856292</v>
       </c>
       <c r="S10">
-        <v>0.06565773895823149</v>
+        <v>0.02566720952477732</v>
       </c>
       <c r="T10">
-        <v>0.06565773895823149</v>
+        <v>0.02566720952477732</v>
       </c>
     </row>
   </sheetData>
